--- a/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,4; 55,55</t>
+          <t>31,84; 56,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,49; 61,74</t>
+          <t>39,17; 61,7</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 49,52</t>
+          <t>15,98; 51,3</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 46,59</t>
+          <t>6,06; 41,78</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 51,57</t>
+          <t>30,76; 49,4</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,36; 51,64</t>
+          <t>31,52; 51,47</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,69; 44,99</t>
+          <t>34,05; 45,11</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,16; 41,98</t>
+          <t>31,69; 42,03</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,5; 34,95</t>
+          <t>20,27; 34,86</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,35; 28,75</t>
+          <t>16,23; 29,22</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,93; 39,76</t>
+          <t>31,34; 39,94</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,58; 36,57</t>
+          <t>28,29; 36,62</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 38,33</t>
+          <t>30,36; 38,59</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,81; 38,54</t>
+          <t>30,68; 38,31</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 28,15</t>
+          <t>17,77; 27,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,01; 33,77</t>
+          <t>24,05; 33,88</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,96; 33,32</t>
+          <t>27,02; 33,29</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,91; 35,31</t>
+          <t>29,34; 35,44</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,09; 41,48</t>
+          <t>30,38; 40,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,23; 41,42</t>
+          <t>32,23; 41,86</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 33,41</t>
+          <t>21,68; 33,5</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,59; 35,03</t>
+          <t>23,9; 34,68</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 36,93</t>
+          <t>28,51; 36,4</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 37,43</t>
+          <t>30,11; 37,47</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,94; 38,31</t>
+          <t>30,09; 38,23</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,96; 40,31</t>
+          <t>32,08; 40,35</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 35,58</t>
+          <t>25,68; 35,41</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,7; 35,13</t>
+          <t>25,62; 35,35</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,47; 35,85</t>
+          <t>29,3; 35,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,76; 37,3</t>
+          <t>30,96; 37,2</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,04</t>
+          <t>33,64; 38,21</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,43; 38,61</t>
+          <t>34,5; 38,7</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,69</t>
+          <t>24,04; 29,91</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,82</t>
+          <t>25,66; 30,92</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,28</t>
+          <t>30,79; 34,48</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,73; 34,99</t>
+          <t>31,44; 35,12</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
@@ -591,7 +591,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -639,39 +639,39 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>31,84; 56,3</t>
+          <t>30,51; 55,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>39,17; 61,7</t>
+          <t>38,56; 62,08</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,98; 51,3</t>
+          <t>16,1; 49,6</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,06; 41,78</t>
+          <t>3,68; 41,09</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,76; 49,4</t>
+          <t>30,61; 50,34</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,52; 51,47</t>
+          <t>31,74; 50,96</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -719,39 +719,39 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,05; 45,11</t>
+          <t>34,17; 44,76</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,69; 42,03</t>
+          <t>31,61; 42,41</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,27; 34,86</t>
+          <t>20,36; 34,53</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,23; 29,22</t>
+          <t>17,15; 29,87</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>31,34; 39,94</t>
+          <t>30,55; 39,47</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,29; 36,62</t>
+          <t>28,39; 36,25</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -799,39 +799,39 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,36; 38,59</t>
+          <t>30,33; 38,65</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,68; 38,31</t>
+          <t>30,41; 38,45</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,77; 27,45</t>
+          <t>17,57; 27,5</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,05; 33,88</t>
+          <t>24,47; 33,74</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,02; 33,29</t>
+          <t>26,8; 33,28</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,34; 35,44</t>
+          <t>29,37; 35,64</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,38; 40,85</t>
+          <t>30,98; 41,2</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,23; 41,86</t>
+          <t>31,93; 41,24</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,68; 33,5</t>
+          <t>21,44; 33,43</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 34,68</t>
+          <t>24,14; 35,18</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,51; 36,4</t>
+          <t>28,96; 37,02</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,11; 37,47</t>
+          <t>30,3; 36,93</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,09; 38,23</t>
+          <t>30,1; 37,96</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,08; 40,35</t>
+          <t>32,57; 40,96</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,68; 35,41</t>
+          <t>25,92; 35,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,62; 35,35</t>
+          <t>25,75; 35,61</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,3; 35,88</t>
+          <t>29,47; 35,68</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,96; 37,2</t>
+          <t>30,77; 37,12</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,64; 38,21</t>
+          <t>33,77; 38,18</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,5; 38,7</t>
+          <t>34,34; 38,68</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,04; 29,91</t>
+          <t>24,45; 30,05</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,66; 30,92</t>
+          <t>25,64; 30,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,79; 34,48</t>
+          <t>30,89; 34,29</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,44; 35,12</t>
+          <t>31,65; 35,22</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>30,51; 55,24</t>
+          <t>32,4; 55,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,56; 62,08</t>
+          <t>38,49; 61,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>16,1; 49,6</t>
+          <t>15,55; 49,52</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,68; 41,09</t>
+          <t>6,59; 46,59</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>30,61; 50,34</t>
+          <t>31,13; 51,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,74; 50,96</t>
+          <t>31,36; 51,64</t>
         </is>
       </c>
     </row>
@@ -719,32 +719,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>34,17; 44,76</t>
+          <t>33,69; 44,99</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,61; 42,41</t>
+          <t>32,16; 41,98</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,36; 34,53</t>
+          <t>20,5; 34,95</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,15; 29,87</t>
+          <t>16,35; 28,75</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,55; 39,47</t>
+          <t>30,93; 39,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,39; 36,25</t>
+          <t>28,58; 36,57</t>
         </is>
       </c>
     </row>
@@ -799,32 +799,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,33; 38,65</t>
+          <t>30,0; 38,33</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,41; 38,45</t>
+          <t>30,81; 38,54</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,57; 27,5</t>
+          <t>17,82; 28,15</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,47; 33,74</t>
+          <t>24,01; 33,77</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,8; 33,28</t>
+          <t>26,96; 33,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,37; 35,64</t>
+          <t>28,91; 35,31</t>
         </is>
       </c>
     </row>
@@ -879,32 +879,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>30,98; 41,2</t>
+          <t>31,09; 41,48</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,93; 41,24</t>
+          <t>32,23; 41,42</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,44; 33,43</t>
+          <t>21,27; 33,41</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>24,14; 35,18</t>
+          <t>23,59; 35,03</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,96; 37,02</t>
+          <t>28,75; 36,93</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,3; 36,93</t>
+          <t>30,31; 37,43</t>
         </is>
       </c>
     </row>
@@ -959,32 +959,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>30,1; 37,96</t>
+          <t>29,94; 38,31</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>32,57; 40,96</t>
+          <t>31,96; 40,31</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,92; 35,51</t>
+          <t>25,72; 35,58</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,75; 35,61</t>
+          <t>25,7; 35,13</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,47; 35,68</t>
+          <t>29,47; 35,85</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,77; 37,12</t>
+          <t>30,76; 37,3</t>
         </is>
       </c>
     </row>
@@ -1039,32 +1039,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>33,77; 38,18</t>
+          <t>33,59; 38,04</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>34,34; 38,68</t>
+          <t>34,43; 38,61</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,45; 30,05</t>
+          <t>24,43; 29,69</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>25,64; 30,75</t>
+          <t>25,69; 30,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>30,89; 34,29</t>
+          <t>30,92; 34,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>31,65; 35,22</t>
+          <t>31,73; 34,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -63,6 +63,13 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
     <border>
@@ -497,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -516,12 +523,18 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se encuentra en el primer cuartil de la edad de comienzo de consumo de tabaco</t>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -531,18 +544,24 @@
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>Mujer</t>
-        </is>
-      </c>
+      <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -559,22 +578,52 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>2007</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
         </is>
       </c>
     </row>
@@ -587,11 +636,17 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -601,32 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>43,95%</t>
+          <t>40,11%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>50,62%</t>
+          <t>39,31%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
+          <t>64,69%</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>38,05%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>27,81%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>21,89%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>27,3%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>17,75%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>36,16%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>33,54%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>55,98%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
           <t>30,58%</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>17,94%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>40,38%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>40,59%</t>
         </is>
       </c>
     </row>
@@ -639,39 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>32,4; 55,55</t>
+          <t>34,89; 44,84</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>38,49; 61,74</t>
+          <t>34,91; 43,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 49,52</t>
+          <t>49,04; 77,83</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6,59; 46,59</t>
+          <t>31,84; 44,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>31,13; 51,57</t>
+          <t>22,1; 35,72</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>31,36; 51,64</t>
+          <t>17,12; 28,41</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>6,77; 53,8</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>12,93; 24,11</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>32,18; 40,49</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29,76; 37,35</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41,74; 68,82</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>26,38; 35,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -681,32 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>39,19%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>37,12%</t>
+          <t>34,46%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>56,62%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>22,56%</t>
+          <t>19,06%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>35,24%</t>
+          <t>22,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>28,58%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>42,83%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>30,18%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>32,28%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>51,94%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19,8%</t>
         </is>
       </c>
     </row>
@@ -719,39 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>33,69; 44,99</t>
+          <t>30,0; 38,33</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>32,16; 41,98</t>
+          <t>30,81; 38,54</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>20,5; 34,95</t>
+          <t>43,04; 70,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>16,35; 28,75</t>
+          <t>6,52; 32,51</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>30,93; 39,76</t>
+          <t>17,82; 28,15</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>28,58; 36,57</t>
+          <t>24,01; 33,77</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>23,54; 61,97</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>17,23; 26,99</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>26,96; 33,32</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>28,91; 35,31</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>40,17; 63,1</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>9,15; 28,49</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -761,32 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>35,9%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>34,46%</t>
+          <t>36,72%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,15%</t>
+          <t>48,07%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>28,58%</t>
+          <t>31,83%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>27,13%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>29,29%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>58,5%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>27,72%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>32,73%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>33,7%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>50,63%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
           <t>30,18%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>32,28%</t>
         </is>
       </c>
     </row>
@@ -799,39 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 38,33</t>
+          <t>31,09; 41,48</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>30,81; 38,54</t>
+          <t>32,23; 41,42</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,82; 28,15</t>
+          <t>30,0; 64,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>24,01; 33,77</t>
+          <t>25,55; 37,9</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,96; 33,32</t>
+          <t>21,27; 33,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>28,91; 35,31</t>
+          <t>23,59; 35,03</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>25,28; 83,63</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>22,57; 34,52</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>28,75; 36,93</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>30,31; 37,43</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>36,92; 66,01</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>26,34; 34,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -841,32 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>35,9%</t>
+          <t>34,12%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>36,72%</t>
+          <t>36,37%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>27,13%</t>
+          <t>38,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>29,29%</t>
+          <t>36,59%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>32,73%</t>
+          <t>30,4%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>33,7%</t>
+          <t>30,56%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>52,67%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>27,05%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32,59%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>33,92%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41,98%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>32,4%</t>
         </is>
       </c>
     </row>
@@ -879,39 +1144,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>31,09; 41,48</t>
+          <t>29,94; 38,31</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>32,23; 41,42</t>
+          <t>31,96; 40,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>21,27; 33,41</t>
+          <t>27,88; 50,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>23,59; 35,03</t>
+          <t>31,76; 40,96</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>28,75; 36,93</t>
+          <t>25,72; 35,58</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>30,31; 37,43</t>
+          <t>25,7; 35,13</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>29,89; 73,91</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>23,0; 31,68</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>29,47; 35,85</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>30,76; 37,3</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>31,81; 53,09</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>28,93; 35,68</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -921,32 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>34,12%</t>
+          <t>35,85%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>36,37%</t>
+          <t>36,49%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>50,31%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>30,56%</t>
+          <t>29,23%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>32,59%</t>
+          <t>27,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>33,92%</t>
+          <t>28,24%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>45,63%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>24,14%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>32,63%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>33,31%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>49,07%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27,35%</t>
         </is>
       </c>
     </row>
@@ -959,134 +1284,83 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>29,94; 38,31</t>
+          <t>33,59; 38,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>31,96; 40,31</t>
+          <t>34,43; 38,61</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>25,72; 35,58</t>
+          <t>43,33; 57,1</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>25,7; 35,13</t>
+          <t>17,39; 35,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>29,47; 35,85</t>
+          <t>24,43; 29,69</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>30,76; 37,3</t>
+          <t>25,69; 30,82</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33,85; 57,03</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>21,78; 26,69</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>30,92; 34,28</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>31,73; 34,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>42,75; 54,76</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>19,6; 30,69</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>35,85%</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>36,49%</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>27,03%</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>28,24%</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>32,63%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>33,31%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>33,59; 38,04</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>34,43; 38,61</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>24,43; 29,69</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>25,69; 30,82</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>30,92; 34,28</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>31,73; 34,99</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="K1:N1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/Q23_R2-Habitat-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -666,7 +667,7 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>64,69%</t>
+          <t>42,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
@@ -686,7 +687,7 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>27,3%</t>
+          <t>25,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -706,7 +707,7 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>55,98%</t>
+          <t>35,95%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>34,89; 44,84</t>
+          <t>34,87; 45,13</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>34,91; 43,93</t>
+          <t>35,11; 44,02</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>49,04; 77,83</t>
+          <t>36,65; 47,22</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,84; 44,0</t>
+          <t>32,35; 43,68</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,1; 35,72</t>
+          <t>21,01; 35,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>17,12; 28,41</t>
+          <t>16,4; 28,47</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,77; 53,8</t>
+          <t>20,36; 32,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>12,93; 24,11</t>
+          <t>12,78; 23,26</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>32,18; 40,49</t>
+          <t>32,15; 39,94</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>29,76; 37,35</t>
+          <t>30,1; 37,39</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>41,74; 68,82</t>
+          <t>31,78; 39,96</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>26,38; 35,11</t>
+          <t>26,14; 34,76</t>
         </is>
       </c>
     </row>
@@ -806,7 +807,7 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>56,62%</t>
+          <t>38,33%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
@@ -826,7 +827,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>29,05%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -846,7 +847,7 @@
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>51,94%</t>
+          <t>34,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>30,0; 38,33</t>
+          <t>30,0; 38,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>30,81; 38,54</t>
+          <t>30,49; 38,23</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>43,04; 70,49</t>
+          <t>33,79; 42,76</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>6,52; 32,51</t>
+          <t>6,85; 32,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>17,82; 28,15</t>
+          <t>17,56; 27,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,01; 33,77</t>
+          <t>23,19; 32,94</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>23,54; 61,97</t>
+          <t>24,0; 33,83</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>17,23; 26,99</t>
+          <t>17,34; 26,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>26,96; 33,32</t>
+          <t>27,21; 34,15</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>28,91; 35,31</t>
+          <t>29,38; 35,33</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>40,17; 63,1</t>
+          <t>31,72; 38,19</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>9,15; 28,49</t>
+          <t>9,75; 28,19</t>
         </is>
       </c>
     </row>
@@ -946,7 +947,7 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>48,07%</t>
+          <t>31,52%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
@@ -966,7 +967,7 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>58,5%</t>
+          <t>22,65%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -986,7 +987,7 @@
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>50,63%</t>
+          <t>27,91%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>31,09; 41,48</t>
+          <t>30,55; 40,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>32,23; 41,42</t>
+          <t>32,04; 41,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>30,0; 64,85</t>
+          <t>26,76; 36,01</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>25,55; 37,9</t>
+          <t>26,18; 38,27</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>21,27; 33,41</t>
+          <t>20,82; 33,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>23,59; 35,03</t>
+          <t>24,47; 35,01</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>25,28; 83,63</t>
+          <t>17,95; 27,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,57; 34,52</t>
+          <t>22,37; 34,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28,75; 36,93</t>
+          <t>28,78; 36,51</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>30,31; 37,43</t>
+          <t>30,59; 37,65</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>36,92; 66,01</t>
+          <t>24,78; 31,41</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>26,34; 34,92</t>
+          <t>26,58; 34,93</t>
         </is>
       </c>
     </row>
@@ -1086,7 +1087,7 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>38,57%</t>
+          <t>33,45%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
@@ -1106,7 +1107,7 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,67%</t>
+          <t>25,81%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1126,7 +1127,7 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>41,98%</t>
+          <t>29,97%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>29,94; 38,31</t>
+          <t>29,78; 38,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>31,96; 40,31</t>
+          <t>31,73; 40,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>27,88; 50,52</t>
+          <t>28,94; 38,02</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>31,76; 40,96</t>
+          <t>32,03; 41,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>25,72; 35,58</t>
+          <t>25,46; 35,12</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>25,7; 35,13</t>
+          <t>25,62; 35,42</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>29,89; 73,91</t>
+          <t>21,09; 30,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>23,0; 31,68</t>
+          <t>22,82; 31,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>29,47; 35,85</t>
+          <t>29,89; 35,87</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>30,76; 37,3</t>
+          <t>30,8; 36,88</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>31,81; 53,09</t>
+          <t>26,97; 33,64</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>28,93; 35,68</t>
+          <t>29,08; 35,72</t>
         </is>
       </c>
     </row>
@@ -1226,7 +1227,7 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>50,31%</t>
+          <t>36,25%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
@@ -1246,7 +1247,7 @@
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>45,63%</t>
+          <t>25,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1266,7 +1267,7 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>49,07%</t>
+          <t>32,01%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>33,59; 38,04</t>
+          <t>33,5; 38,04</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>34,43; 38,61</t>
+          <t>34,25; 38,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>43,33; 57,1</t>
+          <t>33,91; 38,46</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>17,39; 35,26</t>
+          <t>17,86; 34,95</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>24,43; 29,69</t>
+          <t>24,42; 30,04</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>25,69; 30,82</t>
+          <t>25,76; 30,76</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>33,85; 57,03</t>
+          <t>23,54; 28,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>21,78; 26,69</t>
+          <t>21,81; 26,61</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>30,92; 34,28</t>
+          <t>30,78; 34,39</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>31,73; 34,99</t>
+          <t>31,55; 34,78</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>42,75; 54,76</t>
+          <t>29,99; 33,7</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>19,6; 30,69</t>
+          <t>19,82; 30,86</t>
         </is>
       </c>
     </row>
@@ -1364,4 +1365,1212 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población cuyo comienzo de consumo de tabaco fue antes de los 15 años</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>&lt;10.000 hab</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>153739</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>176333</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>158501</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>110328</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>50498</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>48589</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>57760</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>29969</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>204237</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>224922</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>216260</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>140297</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>133653; 172969</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>157505; 197490</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>138197; 178067</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>93805; 126655</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>38160; 63571</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36413; 63202</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>45706; 72243</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>21581; 39275</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>181611; 225611</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>201869; 250699</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>191168; 240386</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>119926; 159510</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>10-50.000 hab</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>183588</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>221908</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>200002</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>120616</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>62858</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>108675</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>104067</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>56117</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>246446</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>330583</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>304069</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>176733</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>159862; 206958</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>196387; 246207</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>176349; 223161</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>43333; 205030</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>49851; 77240</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>88182; 125254</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>85995; 121186</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>45045; 68408</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>222188; 278909</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>300918; 361836</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>279181; 336105</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>87032; 251603</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>&gt;50.000 hab</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>127263</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>177359</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>134994</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>108303</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>54274</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>96722</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>66501</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>63087</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>181537</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>274081</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>201494</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>171391</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>108300; 144489</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>154775; 199469</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>114631; 154222</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>89100; 130216</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>41660; 67317</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>80797; 115625</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>52719; 82156</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>50911; 77527</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>159628; 202481</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>248778; 306243</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>178925; 226772</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>150935; 198335</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Capitales</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>177088</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>199891</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>147705</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>148721</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>110606</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>122439</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>94990</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>85887</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>287694</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>322329</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>242695</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>234609</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>154569; 197737</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>174430; 221013</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>127805; 167897</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>130177; 167700</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>92623; 127791</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>102644; 141895</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>77628; 112136</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>72475; 99871</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>263881; 316698</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>292716; 350432</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>218334; 272391</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>210503; 258606</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>632</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>729</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>606</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>545</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>908</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>1073</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>922</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>877</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>641678</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>775491</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>641201</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>487969</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>278236</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>376424</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>323318</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>235060</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>919915</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>1151915</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>964519</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>723029</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>599485; 680836</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>727952; 820042</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>599806; 680315</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>298145; 583493</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>251338; 309212</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>343406; 410029</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>292931; 355893</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>212404; 259085</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>867773; 969376</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1091008; 1202667</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>903662; 1015425</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>523840; 815602</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>